--- a/RN组件可用属性整理.xlsx
+++ b/RN组件可用属性整理.xlsx
@@ -393,10 +393,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>space-around：每个项目两侧间隔相等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dashed：虚线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -510,6 +506,10 @@
   <si>
     <t>textDecorationStyle：装饰线风格（solid，
                    double，dotted，dashed）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>space-around：每个项目两侧间隔相等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,7 +517,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,13 +559,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -728,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -803,7 +796,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -822,6 +814,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -835,12 +833,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1131,7 +1123,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1155,10 +1147,10 @@
         <v>73</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1169,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>43</v>
@@ -1180,7 +1172,7 @@
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>79</v>
@@ -1197,7 +1189,7 @@
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>80</v>
@@ -1206,7 +1198,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>46</v>
@@ -1214,16 +1206,16 @@
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="56" t="s">
         <v>75</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>47</v>
@@ -1236,9 +1228,9 @@
       <c r="B6" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="44" t="s">
-        <v>112</v>
+      <c r="C6" s="57"/>
+      <c r="D6" s="43" t="s">
+        <v>111</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>48</v>
@@ -1248,13 +1240,13 @@
       <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="54" t="s">
         <v>83</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="44" t="s">
         <v>58</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -1265,11 +1257,11 @@
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="54"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="44" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -1283,10 +1275,10 @@
       <c r="B9" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="44" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -1300,14 +1292,14 @@
       <c r="B10" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="44" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1317,10 +1309,10 @@
       <c r="B11" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="44" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -1334,10 +1326,10 @@
       <c r="B12" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="45" t="s">
+      <c r="C12" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="44" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -1351,10 +1343,10 @@
       <c r="B13" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="45" t="s">
+      <c r="C13" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="44" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -1368,10 +1360,10 @@
       <c r="B14" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="45" t="s">
+      <c r="C14" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="44" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -1385,10 +1377,10 @@
       <c r="B15" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="45" t="s">
+      <c r="C15" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -1402,10 +1394,10 @@
       <c r="B16" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="45" t="s">
+      <c r="C16" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="44" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -1419,10 +1411,10 @@
       <c r="B17" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="45" t="s">
+      <c r="C17" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="44" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -1436,10 +1428,10 @@
       <c r="B18" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="45" t="s">
+      <c r="C18" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="44" t="s">
         <v>25</v>
       </c>
       <c r="E18" s="29" t="s">
@@ -1453,8 +1445,8 @@
       <c r="B19" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="45" t="s">
+      <c r="C19" s="58"/>
+      <c r="D19" s="44" t="s">
         <v>28</v>
       </c>
       <c r="E19" s="29" t="s">
@@ -1468,14 +1460,14 @@
       <c r="B20" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="45" t="s">
+      <c r="C20" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="44" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -1485,10 +1477,10 @@
       <c r="B21" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="45" t="s">
+      <c r="C21" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="44" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1499,10 +1491,10 @@
       <c r="B22" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="45" t="s">
+      <c r="C22" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="44" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1513,8 +1505,8 @@
       <c r="B23" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="45" t="s">
+      <c r="C23" s="58"/>
+      <c r="D23" s="44" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1523,10 +1515,10 @@
       <c r="B24" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" s="45" t="s">
+      <c r="C24" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="44" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1535,65 +1527,65 @@
       <c r="B25" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="44" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="29"/>
-      <c r="B26" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="45" t="s">
+      <c r="B26" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="29"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="45" t="s">
+      <c r="C27" s="53"/>
+      <c r="D27" s="44" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="29"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="46" t="s">
+      <c r="C28" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="45" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="29"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="47" t="s">
+      <c r="C29" s="53"/>
+      <c r="D29" s="46" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C30" s="43" t="s">
-        <v>120</v>
+      <c r="C30" s="42" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C31" s="43" t="s">
-        <v>119</v>
+      <c r="C31" s="42" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
-      <c r="C32" s="41" t="s">
-        <v>121</v>
+      <c r="C32" s="40" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">

--- a/RN组件可用属性整理.xlsx
+++ b/RN组件可用属性整理.xlsx
@@ -721,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -835,6 +835,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1123,7 +1124,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1232,7 +1233,7 @@
       <c r="D6" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="59" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1249,7 +1250,7 @@
       <c r="D7" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="59" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1264,7 +1265,7 @@
       <c r="D8" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="59" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1281,7 +1282,7 @@
       <c r="D9" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="59" t="s">
         <v>51</v>
       </c>
     </row>
